--- a/flashcards/csv/web_dev_vocab.xlsx
+++ b/flashcards/csv/web_dev_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a439170c3fa6d527/Documents/College/2024_dynamic_web_fundamentals/wdd131/flashcards/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{24CDCD3C-5870-47B0-ADAC-1F8879202C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26397E6E-E5D3-4004-85F8-FEE1C5D8524F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{24CDCD3C-5870-47B0-ADAC-1F8879202C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0159A296-6BF1-4A63-A0D6-4751C299336F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F60BC3-E0CD-43A8-9786-6A10C67C9D54}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>Term</t>
   </si>
@@ -460,6 +460,68 @@
 menu.classList.toggle('active');
 ```
 In this example, the `toggle` method adds the `active` class if it is not present and removes it if it is already there, providing a simple way to create interactive behavior."</t>
+  </si>
+  <si>
+    <t>:nth-child()</t>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child()` Pseudo-Class
+**Term**: `:nth-child()` Pseudo-Class  
+**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**: The `:nth-child()` pseudo-class in CSS is used to select one or more elements based on their position within a parent element. It takes a single argument, which can be a number, keyword, or formula, to target elements in a pattern. Common arguments include numbers (`:nth-child(2)` selects the second child), keywords like `odd` or `even`, and formulas like `2n+1` to select every odd element.  
+**Example**:
+```</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+li:nth-child(2) {
+    color: red; /* Selects the second &lt;li&gt; element */
+}
+li:nth-child(odd) {
+    background-color: #f0f0f0; /* Selects all odd &lt;li&gt; elements */
+}
+```
+In these examples, the `nth-child(2)` targets the second `li` element, and `nth-child(odd)` targets all odd-numbered `li` elements, applying the specified styles to them."</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1344,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5FC5E-0AA6-4A01-A784-D333462FAE70}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1867,6 +1929,14 @@
         <v>98</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="255">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/flashcards/csv/web_dev_vocab.xlsx
+++ b/flashcards/csv/web_dev_vocab.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a439170c3fa6d527/Documents/College/2024_dynamic_web_fundamentals/wdd131/flashcards/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{24CDCD3C-5870-47B0-ADAC-1F8879202C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0159A296-6BF1-4A63-A0D6-4751C299336F}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{BBF5E0B6-63F4-437E-AE7A-E5D373CF5384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835A94BD-478A-4CF8-89A9-9864CCF74E06}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F60BC3-E0CD-43A8-9786-6A10C67C9D54}"/>
   </bookViews>
   <sheets>
     <sheet name="web_dev_vocab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Term</t>
   </si>
@@ -34,9 +47,6 @@
     <t>DOM</t>
   </si>
   <si>
-    <t>A programming interface for web documents that represents the structure of the document as a tree of objects.</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
@@ -58,15 +68,9 @@
     <t>Implicit Coercion</t>
   </si>
   <si>
-    <t>The automatic conversion of one data type to another, such as converting a string to a number in JavaScript.</t>
-  </si>
-  <si>
     <t>Explicit Coercion</t>
   </si>
   <si>
-    <t>The deliberate conversion of one data type to another, such as using Number() or String() in JavaScript.</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -82,18 +86,12 @@
     <t>Array</t>
   </si>
   <si>
-    <t>A data structure that stores a collection of items, usually of the same type, in an ordered list.</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
     <t>Tag</t>
   </si>
   <si>
-    <t>An HTML structure wrapped in angle brackets, such as &lt;div&gt; or &lt;span&gt;.</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -145,9 +143,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>A function associated with an object, accessed using dot notation, such as dateObject.getFullYear().</t>
-  </si>
-  <si>
     <t>Span Element</t>
   </si>
   <si>
@@ -157,9 +152,6 @@
     <t>Defer Object</t>
   </si>
   <si>
-    <t>Allows JavaScript to be executed after the document has been parsed, improving performance and avoiding blocking rendering.</t>
-  </si>
-  <si>
     <t>lastModified Property</t>
   </si>
   <si>
@@ -169,9 +161,6 @@
     <t>Object vs Method</t>
   </si>
   <si>
-    <t>Objects are data structures, while methods are functions associated with those objects. Methods are accessed using dot notation, like object.method().</t>
-  </si>
-  <si>
     <t>Document Object</t>
   </si>
   <si>
@@ -181,9 +170,6 @@
     <t>Template Literals</t>
   </si>
   <si>
-    <t>String literals in JavaScript that allow for embedded expressions, using backticks (`) and ${} for variable interpolation.</t>
-  </si>
-  <si>
     <t>JavaScript Switch Statement</t>
   </si>
   <si>
@@ -193,27 +179,15 @@
     <t>JavaScript Conditional Statements</t>
   </si>
   <si>
-    <t>Statements like if, else if, and else that allow for conditional execution of code segments based on whether a condition is true or false.</t>
-  </si>
-  <si>
     <t>JavaScript Looping Statements</t>
   </si>
   <si>
-    <t>Statements like for, while, and do...while that allow for repetitive execution of code segments as long as a condition remains true.</t>
-  </si>
-  <si>
     <t>QuerySelector Method</t>
   </si>
   <si>
-    <t>A method that returns the first element within the document that matches the specified selector, or group of selectors.</t>
-  </si>
-  <si>
     <t>Click Event</t>
   </si>
   <si>
-    <t>An event triggered when an element is clicked, often used to trigger specific functions in response to user interaction.</t>
-  </si>
-  <si>
     <t>Keyup Event</t>
   </si>
   <si>
@@ -223,122 +197,391 @@
     <t>DOMContentLoaded Event</t>
   </si>
   <si>
-    <t>An event that fires when the initial HTML document has been completely loaded and parsed, without waiting for stylesheets, images, and subframes to finish loading.</t>
-  </si>
-  <si>
     <t>Sandbox</t>
   </si>
   <si>
-    <t>A security mechanism for browser-based applications. It allows for safe execution of potentially untrusted code, without risking the security of the rest of the site.</t>
-  </si>
-  <si>
     <t>HTML for external stylesheet</t>
   </si>
   <si>
     <t>HTML for external javascript</t>
   </si>
   <si>
+    <t>Main Line Elements</t>
+  </si>
+  <si>
+    <t>&lt;figure&gt;</t>
+  </si>
+  <si>
+    <t>How to use :hover</t>
+  </si>
+  <si>
+    <t>Center Text Horizontally</t>
+  </si>
+  <si>
+    <t>Center Text Vertically</t>
+  </si>
+  <si>
+    <t>auto-fitting columns</t>
+  </si>
+  <si>
+    <t>create a Border</t>
+  </si>
+  <si>
+    <t>Round Border corners</t>
+  </si>
+  <si>
+    <t>CSS Transition Property</t>
+  </si>
+  <si>
+    <t>.classList Method</t>
+  </si>
+  <si>
+    <t>.toggle Method</t>
+  </si>
+  <si>
+    <t>:nth-child()</t>
+  </si>
+  <si>
+    <t>The addEventListener() method steps</t>
+  </si>
+  <si>
+    <t>addEventListener definition</t>
+  </si>
+  <si>
+    <t>A method that attaches an event handler to an element without overwriting existing event handlers. It allows an element to respond to multiple events.</t>
+  </si>
+  <si>
+    <t>document.querySelector()</t>
+  </si>
+  <si>
+    <t>&lt;link rel=stylesheet href=#&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script src=# defer&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>border: width style color;</t>
+  </si>
+  <si>
+    <t>border-radius: 5px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first parameter is the type of the event (like click or mousedown or any other HTML DOM Event.)
+The second parameter is the function we want to call when the event occurs.
+The third parameter is a boolean value specifying whether to use event bubbling or event capturing. This parameter is optional.
+Note that you don't use the 'on' prefix for the event; use 'click instead of onclick
+</t>
+  </si>
+  <si>
+    <t>The automatic conversion of one data type to another.. such as converting a string to a number in JavaScript.</t>
+  </si>
+  <si>
+    <t>The deliberate conversion of one data type to another.. such as using Number() or String() in JavaScript.</t>
+  </si>
+  <si>
+    <t>A data structure that stores a collection of items.. usually of the same type.. in an ordered list.</t>
+  </si>
+  <si>
+    <t>consists of a start tag.. its attributes (if any).. content.. and an end tag. It is a fundamental building block of a web page.</t>
+  </si>
+  <si>
+    <t>An HTML structure wrapped in angle brackets.. such as &lt;div&gt; or &lt;span&gt;.</t>
+  </si>
+  <si>
+    <t>A function associated with an object.. accessed using dot notation.. such as dateObject.getFullYear().</t>
+  </si>
+  <si>
+    <t>Allows JavaScript to be executed after the document has been parsed.. improving performance and avoiding blocking rendering.</t>
+  </si>
+  <si>
+    <t>Objects are data structures.. while methods are functions associated with those objects. Methods are accessed using dot notation.. like object.method().</t>
+  </si>
+  <si>
+    <t>String literals in JavaScript that allow for embedded expressions.. using backticks (`) and ${} for variable interpolation.</t>
+  </si>
+  <si>
+    <t>Statements like if.. else if.. and else that allow for conditional execution of code segments based on whether a condition is true or false.</t>
+  </si>
+  <si>
+    <t>Statements like for.. while.. and do...while that allow for repetitive execution of code segments as long as a condition remains true.</t>
+  </si>
+  <si>
+    <t>A method that returns the first element within the document that matches the specified selector.. or group of selectors.</t>
+  </si>
+  <si>
+    <t>An event triggered when an element is clicked.. often used to trigger specific functions in response to user interaction.</t>
+  </si>
+  <si>
+    <t>An event that fires when the initial HTML document has been completely loaded and parsed.. without waiting for stylesheets.. images.. and subframes to finish loading.</t>
+  </si>
+  <si>
+    <t>A security mechanism for browser-based applications. It allows for safe execution of potentially untrusted code.. without risking the security of the rest of the site.</t>
+  </si>
+  <si>
+    <t>Header.. NavBar.. Main.. Footer - if applicable sidebar.. Hero Section</t>
+  </si>
+  <si>
+    <t>HTML element that is used to represent self-contained content.. such as illustrations.. diagrams.. photos.. code snippets.. or other content that can be referenced as a single unit</t>
+  </si>
+  <si>
+    <t>To apply styles using the :hover pseudo-class.. you directly attach it to the element selector without spaces. For example.. to change the background color and text color of a link with the class .menu-tags on hover.. you use the syntax .menu-tags:hover { background-color: #b0c4b1; color: black; }. Incorrect usage.. such as including a space between the element and the :hover.. will prevent the styles from being applied correctly.</t>
+  </si>
+  <si>
+    <t>commonly achieved using the text-align property. This property can be applied to a parent container to align its child elements' text content. To center text.. use text-align: center; on the parent element containing the text.</t>
+  </si>
+  <si>
+    <t>For vertical centering within a container.. additional properties like display: flex;.. align-items: center;.. and justify-content: center; on the container may be needed.</t>
+  </si>
+  <si>
+    <t>This layout automatically adjusts to screen size.. adding or removing columns based on the space available.. while ensuring each column is at least 150px wide.
+.container {
+    display: grid;
+    grid-template-columns: repeat(auto-fit.. minmax(150px.. 1fr));
+    grid-gap: 15px;
+}</t>
+  </si>
+  <si>
+    <t>The transition property in CSS is used to animate changes in property values over a specified duration.. creating smooth transitions between different states of an element. It is typically used to enhance the user experience by animating properties such as colors.. sizes.. and positions when the state of an element changes due to interactions like hover or focus.
+Example:
+button {
+    background-color: blue;
+    transition: background-color 0.5s ease;
+}
+button:hover {
+    background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>The console.log() method is a built-in function in JavaScript used to print output to the browser’s console. It is commonly used for debugging purposes.. allowing developers to log messages.. variable values.. or any other information to help track the flow of execution or identify issues in the code.
+Example:
+const name = 'Alice';
+console.log('Hello.. ' + name); // Outputs: Hello.. Alice
+In this example.. the console.log() method prints the message Hello.. Alice to the console. It is an essential tool for troubleshooting and understanding code behavior during development.</t>
+  </si>
+  <si>
+    <t>### `classList` Property
+**Term**: `classList` Property  
+**Definition**: The `classList` property is a read-only property in JavaScript that provides access to the list of classes assigned to an HTML element. It allows you to easily add.. remove.. toggle.. and check for the presence of CSS classes on an element.. making it useful for dynamic styling and behavior control. It includes methods such as `.add()`.. `.remove()`.. `.toggle()`.. and `.contains()`.  
+**Example**:
+```javascript
+const menu = document.getElementById('menu');
+// Toggle the 'active' class on the menu element
+menu.classList.toggle('active');
+```
+In this example.. the `toggle` method adds the `active` class if it is not present and removes it if it is already there.. making it useful for interactive elements like menus or buttons.</t>
+  </si>
+  <si>
+    <t>### `toggle` Method
+**Term**: `toggle` Method  
+**Definition**: The `toggle` method is a function available on the `classList` property in JavaScript. It is used to add a specified class to an element if it is not already present.. and to remove the class if it is present. It effectively switches the class on and off.. making it ideal for toggling the visibility or state of an element based on user interaction. It can optionally take a second boolean argument to force-add or force-remove the class.  
+**Example**:
+```javascript
+const menu = document.getElementById('menu');
+// Toggle the 'active' class on the menu element
+menu.classList.toggle('active');
+```
+In this example.. the `toggle` method adds the `active` class if it is not present and removes it if it is already there.. providing a simple way to create interactive behavior.</t>
+  </si>
+  <si>
+    <t>:nth-child()` Pseudo-Class
+**Term**: `:nth-child()` Pseudo-Class  
+**Definition**: The `:nth-child()` pseudo-class in CSS is used to select one or more elements based on their position within a parent element. It takes a single argument.. which can be a number.. keyword.. or formula.. to target elements in a pattern. Common arguments include numbers (`:nth-child(2)` selects the second child).. keywords like `odd` or `even`.. and formulas like `2n+1` to select every odd element.  
+**Example**:
+```css
+li:nth-child(2) {
+    color: red; /* Selects the second &lt;li&gt; element */
+}
+li:nth-child(odd) {
+    background-color: #f0f0f0; /* Selects all odd &lt;li&gt; elements */
+}
+```
+In these examples.. the `nth-child(2)` targets the second `li` element.. and `nth-child(odd)` targets all odd-numbered `li` elements.. applying the specified styles to them.</t>
+  </si>
+  <si>
+    <t>A method that returns the first element within the document that matches the specified CSS selector(s). If no matches are found.. it returns null.</t>
+  </si>
+  <si>
+    <t>Root Element</t>
+  </si>
+  <si>
+    <t>Span Tag aka &lt;span&gt; Tag</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assigning a Document Element to a Variable</t>
+  </si>
+  <si>
+    <t>Yes.. the querySelector() method can select both IDs and classes.. When selecting by ID.. you use # followed by the ID name like in CSS (e.g. document.querySelector('#elementId')).. When selecting by class.. you use . followed by the class name (e.g. document.querySelector('.className')).. It can be used for any valid CSS selector.</t>
+  </si>
+  <si>
+    <t>Node in Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> refers to any single point in the DOM (Document Object Model) tree.. Nodes represent various parts of the document such as elements.. text.. attributes.. and comments.. The DOM is structured as a tree where each part of the document is a node..
+Types of Nodes:
+Element Node: Represents an HTML element like &lt;div&gt;..
+Text Node: Contains text content inside an element..
+Attribute Node: Represents attributes of an element such as class or id..
+Comment Node: Represents comments in the document..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can set the text node of a div element to a variable using the textContent or innerText property..
+Example:
+let divElement = document.getElementById('myDiv');  // Select the div element
+let textNode = divElement.textContent;  // Store the text node content in a variable
+Let me know if you'd like to modify anything!</t>
+  </si>
+  <si>
+    <t>Wayfinding on a Website</t>
+  </si>
+  <si>
+    <t>Wayfinding on a website refers to the design and layout elements that guide users through the site.. It helps users navigate and find what they are looking for easily.. Common wayfinding features include:
+Navigation Menus: Organized menus to access different sections..
+Breadcrumbs: A trail showing the user's current location within the website..
+Search Bar: A tool to quickly locate specific content..
+Consistent Layout: Uniformity across pages for easy navigation..
+Link Structure: Identifiable links that guide users to related information..
+CTA Buttons: Call-to-action buttons that direct users to take specific actions..
+Footers: Additional navigation at the bottom of the page..
+Icons and Symbols: Visual cues that guide user interaction..</t>
+  </si>
+  <si>
+    <t>console.log() Method</t>
+  </si>
+  <si>
+    <t>The root element is the top-level element in an HTML document.. In HTML.. this is typically the &lt;html&gt; element.. It encloses all the other elements and serves as the starting point of the document's structure.</t>
+  </si>
+  <si>
     <r>
-      <t>"&lt;link rel=</t>
+      <t>Definition</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFD1F1A9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="OpenDyslexic"/>
       </rPr>
-      <t>"stylesheet"</t>
+      <t>: The &lt;span&gt; tag is an inline container used to group elements for styling purposes or to manipulate them with JavaScript.. It does not inherently provide any styling or layout.. but can be targeted with CSS or JavaScript.</t>
+    </r>
+  </si>
+  <si>
+    <t>Question: Can the querySelector() method be an ID or a class?</t>
+  </si>
+  <si>
+    <t>How do you set a text node of a div element to a variable in JavaScript?</t>
+  </si>
+  <si>
+    <t>&lt;span&gt; vs &lt;div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">both used for structuring and styling content. 
+&lt;div&gt; creates block-level containers for grouping elements
+&lt;span&gt; creates inline containers for styling specific portions of text or elements within a block-level container
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF9DA4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="OpenDyslexic"/>
       </rPr>
-      <t xml:space="preserve"> href=</t>
+      <t>(https://www.geeksforgeeks.org/difference-between-div-and-span-tag-in-html/)</t>
+    </r>
+  </si>
+  <si>
+    <t>flex-wrap:wrap;</t>
+  </si>
+  <si>
+    <t>How to add an event listener</t>
+  </si>
+  <si>
+    <t>What is an event in Java?</t>
+  </si>
+  <si>
+    <t>Event Handling</t>
+  </si>
+  <si>
+    <r>
+      <t>a mechanism to </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFD1F1A9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>"#"</t>
+      <t>control the events </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF9DA4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="14"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;script src=</t>
+      <t>and to </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFD1F1A9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>"#"</t>
+      <t>decide what should happen after an event</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF9DA4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="14"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> defer&gt;&lt;/script&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Main Line Elements</t>
-  </si>
-  <si>
-    <t>"Header, NavBar, Main, Footer - if applicable sidebar, Hero Section"</t>
-  </si>
-  <si>
-    <t>"consists of a start tag, its attributes (if any), content, and an end tag. It is a fundamental building block of a web page."</t>
-  </si>
-  <si>
-    <t>&lt;figure&gt;</t>
-  </si>
-  <si>
-    <t>HTML element that is used to represent self-contained content, such as illustrations, diagrams, photos, code snippets, or other content that can be referenced as a single unit</t>
-  </si>
-  <si>
-    <t>How to use :hover</t>
-  </si>
-  <si>
-    <t>"To apply styles using the :hover pseudo-class, you directly attach it to the element selector without spaces. For example, to change the background color and text color of a link with the class .menu-tags on hover, you use the syntax .menu-tags:hover { background-color: #b0c4b1; color: black; }. Incorrect usage, such as including a space between the element and the :hover, will prevent the styles from being applied correctly."</t>
-  </si>
-  <si>
-    <t>Center Text Horizontally</t>
-  </si>
-  <si>
-    <t>Center Text Vertically</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"commonly achieved using the </t>
+      <t> occur. To handle the events Java follows the </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>text-align</t>
+      <t>Delegation Event model.
+https://www.geeksforgeeks.org/event-handling-in-java/</t>
+    </r>
+  </si>
+  <si>
+    <t>Listeners</t>
+  </si>
+  <si>
+    <t> used for handling the events generated from the source. Each of these listeners represents interfaces that are responsible for handling events.
+https://www.geeksforgeeks.org/event-handling-in-java/</t>
+  </si>
+  <si>
+    <t>JavaScript Toggle Class Example:</t>
+  </si>
+  <si>
+    <t>A programming interface for web documents that represents the structure of the document as a tree of objects.
+A standardized interface allowing programs to dynamically access and manipulate the content of a web page.</t>
+  </si>
+  <si>
+    <t>target Attribute</t>
+  </si>
+  <si>
+    <t>Pseudo-classes</t>
+  </si>
+  <si>
+    <r>
+      <t>:root</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +591,155 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> property. This property can be applied to a parent container to align its child elements' text content. To center text, use </t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>:placeholder-shown Pseudo-class</t>
+  </si>
+  <si>
+    <t>This class in CSS applies styles to an input element when the placeholder text is visible. This can be useful for styling input fields based on whether the user has entered any text.
+Example:
+css
+Copy code
+input:placeholder-shown {
+  background-color: lightgray;
+}
+Type: CSS</t>
+  </si>
+  <si>
+    <t>:not Pseudo-class</t>
+  </si>
+  <si>
+    <t>srcset attribute</t>
+  </si>
+  <si>
+    <t>allows the browser to choose the best image to display based on the device's screen size and resolution. The srcset attribute is used with the picture and source elements.
+Srcset supports the need to target different browser ranges. A different image can be rendered depending up on the width of the screen. Here is an example:
+&lt;picture&gt;
+  &lt;source srcset="images/hero-large.webp" media="min-width: 1000px"&gt;
+  &lt;source srcset="images/hero-medium.webp" media="min-width: 550px"&gt;
+  &lt;img src="images/hero-small.webp" alt="Orem Utah Temple" width="400" height="200"&gt;
+&lt;/picture&gt;
+from:
+https://byui-cse.github.io/wdd131-ww-course/week03/prepare-responsive-images.html</t>
+  </si>
+  <si>
+    <t>Should I include image dimensions in HTML</t>
+  </si>
+  <si>
+    <t>Always! This will prevent layout shift</t>
+  </si>
+  <si>
+    <t>How should I put responsive images into my html?</t>
+  </si>
+  <si>
+    <t>&lt;picture&gt;
+  &lt;source srcset="images/hero-large.webp" media="min-width: 1000px"&gt;
+  &lt;source srcset="images/hero-medium.webp" media="min-width: 550px"&gt;
+  &lt;img src="images/hero-small.webp" alt="Orem Utah Temple" width="400" height="200"&gt;
+&lt;/picture&gt;</t>
+  </si>
+  <si>
+    <t>How do you access an element in a JavaScript array?</t>
+  </si>
+  <si>
+    <t>How do you declare a JavaScript array?</t>
+  </si>
+  <si>
+    <t>How do you modify an element in a JavaScript array?</t>
+  </si>
+  <si>
+    <t>How do you iterate over an array?</t>
+  </si>
+  <si>
+    <t>How do you get the length of JS Array?</t>
+  </si>
+  <si>
+    <t>Method VS Property: Property</t>
+  </si>
+  <si>
+    <t>Method VS Property: Method</t>
+  </si>
+  <si>
+    <t>removes the last element from the array</t>
+  </si>
+  <si>
+    <t>removes first element from the array</t>
+  </si>
+  <si>
+    <t>adds a new element to the beginning of the array</t>
+  </si>
+  <si>
+    <t>cut out a portion of the array starting at the index in the given number for the given length</t>
+  </si>
+  <si>
+    <t>removes 1 element from the array starting at index 2</t>
+  </si>
+  <si>
+    <t>transform the array into a single string with a comma and space delimiter option</t>
+  </si>
+  <si>
+    <t>array-variable.pop();</t>
+  </si>
+  <si>
+    <t>array-variable.shift();</t>
+  </si>
+  <si>
+    <t>array-variable.unshift(100)</t>
+  </si>
+  <si>
+    <t>array-variable.join</t>
+  </si>
+  <si>
+    <t>array-variable.push('sally')</t>
+  </si>
+  <si>
+    <t>adds a new element to the end of the array
+(in this case 'sally')</t>
+  </si>
+  <si>
+    <t>element { box-shadow: offset-x offset-y blur-radius spread-radius color; }</t>
+  </si>
+  <si>
+    <t>How to put a box-shadow around an element</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>JavaScript Object</t>
+  </si>
+  <si>
+    <t>Function Expression</t>
+  </si>
+  <si>
+    <t>What is a function declaration in JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A function declaration defines a named function that can be invoked anywhere in the code due to hoisting. Example:
+javascript
+Copy code
+function greet() {
+    console.log('Hello!');
+}
+greet(); // Outputs: 'Hello!'</t>
+  </si>
+  <si>
+    <t>How does function hoisting work in JavaScript?</t>
+  </si>
+  <si>
+    <t>How do function parameters and arguments work in JavaScript?</t>
+  </si>
+  <si>
+    <t>What are default parameters in JavaScript functions?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How does the </t>
     </r>
     <r>
       <rPr>
@@ -356,7 +747,7 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>text-align: center;</t>
+      <t>return</t>
     </r>
     <r>
       <rPr>
@@ -366,52 +757,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> on the parent element containing the text."</t>
+      <t xml:space="preserve"> statement work in JavaScript functions?</t>
     </r>
   </si>
   <si>
-    <t>"For vertical centering within a container, additional properties like display: flex;, align-items: center;, and justify-content: center; on the container may be needed."</t>
-  </si>
-  <si>
-    <t>auto-fitting columns</t>
-  </si>
-  <si>
-    <t>"This layout automatically adjusts to screen size, adding or removing columns based on the space available, while ensuring each column is at least 150px wide.
-.container {
-    display: grid;
-    grid-template-columns: repeat(auto-fit, minmax(150px, 1fr));
-    grid-gap: 15px;
-}"</t>
-  </si>
-  <si>
-    <t>create a Border</t>
-  </si>
-  <si>
-    <t>Round Border corners</t>
-  </si>
-  <si>
-    <t>"border-radius: 5px;"</t>
-  </si>
-  <si>
-    <t>"border: width style color;"</t>
-  </si>
-  <si>
-    <t>CSS Transition Property</t>
-  </si>
-  <si>
-    <t>"The transition property in CSS is used to animate changes in property values over a specified duration, creating smooth transitions between different states of an element. It is typically used to enhance the user experience by animating properties such as colors, sizes, and positions when the state of an element changes due to interactions like hover or focus.
-Example:
-button {
-    background-color: blue;
-    transition: background-color 0.5s ease;
-}
-button:hover {
-    background-color: green;
-}"</t>
+    <t>What is an anonymous function in JavaScript?</t>
+  </si>
+  <si>
+    <t>What is a named function expression in JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A named function expression is a function expression where the function has a name. Example:
+const factorial = function fact(n) {
+    return n &lt;= 1 ? 1 : n * fact(n - 1);
+};</t>
+  </si>
+  <si>
+    <t>What is an arrow function in JavaScript?</t>
+  </si>
+  <si>
+    <t>An arrow function is a shorter syntax for writing function expressions. It does not have its own this context. Example:
+javascript
+Copy code
+const greet = () =&gt; console.log('Hello!');
+greet(); // Outputs: 'Hello!'</t>
+  </si>
+  <si>
+    <t>What is an IIFE in JavaScript?
+Immediately Invoked Function Expression)</t>
+  </si>
+  <si>
+    <t>An IIFE is a function that is invoked immediately after it is defined. Example:
+(function() {
+    console.log('IIFE!');
+})(); // Outputs: 'IIFE!'</t>
   </si>
   <si>
     <r>
-      <t>console.log()</t>
+      <t>Term</t>
     </r>
     <r>
       <rPr>
@@ -421,65 +804,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Method</t>
+      <t>: Calling Functions</t>
     </r>
   </si>
   <si>
-    <t>"The console.log() method is a built-in function in JavaScript used to print output to the browser’s console. It is commonly used for debugging purposes, allowing developers to log messages, variable values, or any other information to help track the flow of execution or identify issues in the code.
-Example:
-const name = 'Alice';
-console.log('Hello, ' + name); // Outputs: Hello, Alice
-In this example, the console.log() method prints the message Hello, Alice to the console. It is an essential tool for troubleshooting and understanding code behavior during development."</t>
-  </si>
-  <si>
-    <t>.classList Method</t>
-  </si>
-  <si>
-    <t>"### `classList` Property
-**Term**: `classList` Property  
-**Definition**: The `classList` property is a read-only property in JavaScript that provides access to the list of classes assigned to an HTML element. It allows you to easily add, remove, toggle, and check for the presence of CSS classes on an element, making it useful for dynamic styling and behavior control. It includes methods such as `.add()`, `.remove()`, `.toggle()`, and `.contains()`.  
-**Example**:
-```javascript
-const menu = document.getElementById('menu');
-// Toggle the 'active' class on the menu element
-menu.classList.toggle('active');
-```
-In this example, the `toggle` method adds the `active` class if it is not present and removes it if it is already there, making it useful for interactive elements like menus or buttons."</t>
-  </si>
-  <si>
-    <t>.toggle Method</t>
-  </si>
-  <si>
-    <t>"### `toggle` Method
-**Term**: `toggle` Method  
-**Definition**: The `toggle` method is a function available on the `classList` property in JavaScript. It is used to add a specified class to an element if it is not already present, and to remove the class if it is present. It effectively switches the class on and off, making it ideal for toggling the visibility or state of an element based on user interaction. It can optionally take a second boolean argument to force-add or force-remove the class.  
-**Example**:
-```javascript
-const menu = document.getElementById('menu');
-// Toggle the 'active' class on the menu element
-menu.classList.toggle('active');
-```
-In this example, the `toggle` method adds the `active` class if it is not present and removes it if it is already there, providing a simple way to create interactive behavior."</t>
-  </si>
-  <si>
-    <t>:nth-child()</t>
-  </si>
-  <si>
     <r>
-      <t>:nth-child()` Pseudo-Class
-**Term**: `:nth-child()` Pseudo-Class  
-**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Definition</t>
+      <t>Term</t>
     </r>
     <r>
       <rPr>
@@ -489,20 +819,229 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**: The `:nth-child()` pseudo-class in CSS is used to select one or more elements based on their position within a parent element. It takes a single argument, which can be a number, keyword, or formula, to target elements in a pattern. Common arguments include numbers (`:nth-child(2)` selects the second child), keywords like `odd` or `even`, and formulas like `2n+1` to select every odd element.  
-**Example**:
-```</t>
+      <t>: Function Return Value</t>
+    </r>
+  </si>
+  <si>
+    <t>rem (Root em) Definition: A CSS unit of measurement that is relative to the font size of the root element.. The rem unit allows for scalable designs based on the root element's font size.. making it useful for creating responsive layouts.. 1rem equals the font size of the root element (typically &lt;html&gt;).. which by default is usually 16px.</t>
+  </si>
+  <si>
+    <t>If I want several child items that I want to display in multiple rows and columns.. to fit the screen width.. what kind of flex item would I use?</t>
+  </si>
+  <si>
+    <t>"can be defined as changing the state of an object or behavior by performing actions. Actions can be a button click.. cursor movement.. keypress through keyboard or page scrolling.. etc. "
+https://www.geeksforgeeks.org/event-handling-in-java/</t>
+  </si>
+  <si>
+    <t>buttons.. checkboxes.. list.. menu-item.. choice.. scrollbar.. text components.. windows.. etc.
+https://www.geeksforgeeks.org/event-handling-in-java/</t>
+  </si>
+  <si>
+    <t>Term: Toggling a Class with JavaScript
+Definition: A method to toggle (add or remove) a class from an element when an event (e.g... a click) occurs.
+Example:
+javascript
+Copy code
+const menubutton = document.getElementById('menubutton');
+menubutton.addEventListener('click'.. function() {
+    menubutton.classList.toggle('open');
+});</t>
+  </si>
+  <si>
+    <t>Definition: The target attribute in HTML specifies where to open the linked document. Common values include:
+_self: Opens the link in the same browsing context (default).
+_blank: Opens the link in a new tab or window.
+_parent: Opens the link in the parent frame.
+_top: Opens the link in the full body of the window.. breaking out of any frames.
+Example:
+html
+Copy code
+&lt;a href="https://example.com" target="_blank"&gt;Visit Example&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This pseudo-class in CSS selects the highest-level parent element in the DOM.. which is typically the &lt;html&gt; element in an HTML document. It is commonly used to define CSS variables (custom properties) globally across the document.</t>
+  </si>
+  <si>
+    <t>let arr = [10.. 20.. 30.. 40];
+console.log(arr[1]); // Outputs: 20</t>
+  </si>
+  <si>
+    <t>let fruits = ['apple'.. 'banana'.. 'orange'];
+console.log(fruits); // Outputs: ['apple'.. 'banana'.. 'orange']</t>
+  </si>
+  <si>
+    <t>by accessing the index of the element and assigning it a new value.
+let numbers = [1.. 2.. 3];
+numbers[1] = 20;
+console.log(numbers); // Outputs: [1.. 20.. 3]</t>
+  </si>
+  <si>
+    <t>You can iterate over an array using either the classic for loop or the forEach method.
+Classic for loop:
+let numbers = [1.. 2.. 3.. 4];
+for (let i = 0; i &lt; numbers.length; i++) {
+  console.log(numbers[i]);
+}
+forEach method
+let numbers = [1.. 2.. 3.. 4];
+numbers.forEach(function(number) {
+  console.log(number);
+});</t>
+  </si>
+  <si>
+    <t>With the length property 
+let fruits = ['apple'.. 'banana'.. 'orange'];
+let lengthOfArray = fruits.length; // lengthOfArray is 3</t>
+  </si>
+  <si>
+    <t>holds information or values
+let person = {
+  name: 'John'..
+  age: 30
+};
+console.log(person.name); // 'John' (This is a ________)</t>
+  </si>
+  <si>
+    <t>perform actions and are functions attached to an object
+let person = {
+  name: 'John'..
+  age: 30..
+  greet: function() {
+    console.log('Hello!');
+  }
+};
+person.greet(); // 'Hello!' (This is a _________)</t>
+  </si>
+  <si>
+    <t>array-variable.slice(2..3)</t>
+  </si>
+  <si>
+    <t>array-variable.splice(2..1)</t>
+  </si>
+  <si>
+    <t>A collection of key-value pairs (properties).. where the keys are strings and the values can be of any type.. including other objects or functions. Objects store and manipulate data in a structured way.
+Example:
+javascript
+Copy code
+const car = {
+    brand: 'Toyota'..
+    model: 'Corolla'..
+    year: 2020..
+    start: function() {
+        console.log('Car started');
+    }
+};</t>
+  </si>
+  <si>
+    <t>A function expression is when a function is assigned to a variable. It can be anonymous or named and is not hoisted.. meaning it cannot be used before its declaration.</t>
+  </si>
+  <si>
+    <t>In JavaScript.. function declarations are hoisted.. meaning they can be called before they appear in the code. Example:
+greet(); // Outputs: 'Hello!'
+function greet() {
+    console.log('Hello!');
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parameters are variables listed in the function's definition.. while arguments are values passed when the function is invoked. Example:
+function greet(name) {
+    console.log('Hello.. ' + name);
+}
+greet('Alice'); // Outputs: 'Hello.. Alice'</t>
+  </si>
+  <si>
+    <t>Default parameters allow you to initialize a parameter with a default value if no argument is provided. Example:
+function greet(name = 'Guest') {
+    console.log('Hello.. ' + name);
+}
+greet(); // Outputs: 'Hello.. Guest'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The return statement ends function execution and specifies a value to be returned. Example:
+function add(a.. b) {
+    return a + b;
+}
+const sum = add(2.. 3); // sum is 5</t>
+  </si>
+  <si>
+    <t>An anonymous function is a function without a name.. often used in function expressions. Example:
+const greet = function() {
+    console.log('Hello!');
+};
+greet(); // Outputs: 'Hello!'</t>
+  </si>
+  <si>
+    <t>In JavaScript.. you call or invoke a function by using the function's name followed by parentheses. If the function expects arguments.. you pass them inside the parentheses.
+function greet(name) {
+    console.log('Hello.. ' + name);
+}
+greet('John'); // Outputs: 'Hello.. John'</t>
+  </si>
+  <si>
+    <t>Definition: The :not pseudo-class in CSS selects elements that do not match a given selector. It is often used to exclude certain elements from being styled.
+Example:
+button:not(.primary) {
+  background-color: gray;
+}</t>
+  </si>
+  <si>
+    <t>" A pseudo-class in CSS is used to define a special state of an element. For example.. it can style an element when the user interacts with it or when it meets certain conditions (like being the first child of its parent).
+Examples:
+:hover: Applies styles when an element is hovered over by the user.
+:nth-child(): Selects elements based on their position in a parent element.
+:focus: Applies styles when an element is focused.. such as an input field.
+css
+Copy code
+button:hover {
+  background-color: blue;
+}"</t>
+  </si>
+  <si>
+    <t>"Definition: In JavaScript.. you can assign an element from the DOM to a variable using various methods depending on how you want to select the element.
+getElementById(): Selects an element by ID..
+querySelector(): Selects the first element that matches a CSS selector..
+getElementsByClassName(): Returns a live collection of elements with the specified class name..
+getElementsByTagName(): Selects elements by their tag name..
+querySelectorAll(): Returns a static NodeList of elements that match the specified CSS selector..
+Examples:
+let elementById = document.getElementById('elementId')..
+let elementByQuery = document.querySelector('.className')..
+let elementsByClass = document.getElementsByClassName('className')..
+let elementsByTag = document.getElementsByTagName('div')..
+let allMatches = document.querySelectorAll('.className"</t>
+  </si>
+  <si>
+    <t>"[clickable element(B)].addEventListener('[action such as click]`.. () =&gt; {clickable element(B)].classList.toggle('[class being toggled]');
+[] brackets are used to indicate where each piece of code is placed. Do not actually include the brackets in the code"</t>
+  </si>
+  <si>
+    <t>What is a Source (in javascript)</t>
+  </si>
+  <si>
+    <t>WebP Image Format</t>
+  </si>
+  <si>
+    <t>a modern image format that provides both lossy and lossless compression, developed by Google. It supports transparency and animations while offering smaller file sizes compared to formats like JPEG and PNG, making it ideal for optimizing web images.
+Key Features:
+Lossy and lossless compression.
+Supports transparency (alpha channel).
+Supports animations.
+Widely supported by modern browsers.</t>
+  </si>
+  <si>
+    <t>Global CSS Variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ______ are custom properties that are defined at the </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>css</t>
+      <t>:root</t>
     </r>
     <r>
       <rPr>
@@ -512,23 +1051,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-li:nth-child(2) {
-    color: red; /* Selects the second &lt;li&gt; element */
+      <t xml:space="preserve"> level. These variables can be used throughout the entire stylesheet.
+:root {
+    --main-bg-color: #ffffff;
+    --primary-color: #3498db;
+    --font-size: 16px;
 }
-li:nth-child(odd) {
-    background-color: #f0f0f0; /* Selects all odd &lt;li&gt; elements */
-}
-```
-In these examples, the `nth-child(2)` targets the second `li` element, and `nth-child(odd)` targets all odd-numbered `li` elements, applying the specified styles to them."</t>
+body {
+    background-color: var(--main-bg-color);
+    color: var(--primary-color);
+    font-size: var(--font-size);
+}</t>
     </r>
+  </si>
+  <si>
+    <t>innerHTML</t>
+  </si>
+  <si>
+    <t>document.write()</t>
+  </si>
+  <si>
+    <t>window.alert()</t>
+  </si>
+  <si>
+    <t>a method used to display an alert dialog box with a specified message and an OK button. It pauses script execution until the user dismisses the alert.
+Example:
+________('Hello, World!');</t>
+  </si>
+  <si>
+    <t>a method used to write content directly into the HTML document. It is typically used during page loading and can overwrite the entire document if called after the page has loaded. ONLY USE FOR TESTING
+Example:
+________('This is written to the document.');</t>
+  </si>
+  <si>
+    <t>a property used to write or access the HTML content inside an element. It allows you to get or set the HTML markup contained within an element.
+Example:
+document.getElementById('demo').______ = 'Hello, World!';</t>
+  </si>
+  <si>
+    <t>console.log()</t>
+  </si>
+  <si>
+    <t>a method used to print messages or values to the browser's console. It is often used for debugging purposes.</t>
+  </si>
+  <si>
+    <t>How to display a JavaScript Variable in HTML</t>
+  </si>
+  <si>
+    <t>can be done by assigning the variable's value to an element's property, such as innerHTML, in the DOM.
+Example:
+let message = 'Hello, World!';
+document.getElementById('demo').innerHTML = message;
+This will display the value of the variable in the HTML element with the ID demo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,16 +1245,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF9DA4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD1F1A9"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF9DA4"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="OpenDyslexic"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1022,15 +1656,47 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1087,6 +1753,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1406,538 +2076,2024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5FC5E-0AA6-4A01-A784-D333462FAE70}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="147.7109375" customWidth="1"/>
+    <col min="1" max="1" width="87.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="147.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="270" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B79" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B81" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B84" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="180">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="120">
-      <c r="A45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="210">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="210">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="255">
-      <c r="A48" t="s">
+      <c r="B95" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>100</v>
+      <c r="C95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="129" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B111" s="15"/>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="16"/>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="16"/>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="16"/>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E104">
+    <sortCondition descending="1" ref="C5:C104"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>